--- a/backend/controllers/teachers.xlsx
+++ b/backend/controllers/teachers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shreyas Patil\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omkar\Desktop\Omkar\PICT\TEIT 2\Internship-inhouse\CO-Attainment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BAC097C-980C-459A-A44C-DCF1695198FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FC0DD2-C4E0-4330-AEAE-3753BCAAEAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{08525477-DD2E-4DF3-BD1D-C02A7B7997BA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Serial No</t>
   </si>
@@ -65,9 +65,6 @@
     <t>shree@gmail.com</t>
   </si>
   <si>
-    <t>shyamsir@gmail.com</t>
-  </si>
-  <si>
     <t>omkar</t>
   </si>
   <si>
@@ -83,16 +80,28 @@
     <t>Shreyas Patil</t>
   </si>
   <si>
-    <t>Shyam Deshmukh</t>
-  </si>
-  <si>
     <t>Cybage</t>
   </si>
   <si>
-    <t>CC</t>
-  </si>
-  <si>
     <t>ML</t>
+  </si>
+  <si>
+    <t>shyam@gmail.com</t>
+  </si>
+  <si>
+    <t>Shyam DeshMukh</t>
+  </si>
+  <si>
+    <t>TOC</t>
+  </si>
+  <si>
+    <t>ICT</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>LL</t>
   </si>
 </sst>
 </file>
@@ -475,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AA50A62-30B0-46FA-B90D-24CB15973296}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,13 +523,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <v>9</v>
@@ -537,13 +546,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -557,21 +566,90 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="F4">
-        <v>11</v>
-      </c>
-      <c r="G4">
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
@@ -579,7 +657,10 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{053FD9A6-0196-446D-8CE4-70E047DCB1A4}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{B2CEA696-3258-4ADD-A5A9-C1D52DCB9159}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{6EC74EEF-8975-4800-B0A0-3842DD6B7A95}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{C533E585-074C-45C5-BB3E-AB75280964B9}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{E91C206D-7F88-451E-941A-45EC4201C3B6}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{F8776E9F-0438-4BAA-B7C0-B4BE7DE84813}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{0D246363-D4B0-4614-B6A9-FDCD9B338829}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
